--- a/files/Data IHM.xlsx
+++ b/files/Data IHM.xlsx
@@ -1,133 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zineb Abjili\PythonProjects\Dragline\files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="tableau">Sheet1!$A$1:$M$13</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
-  <si>
-    <t>A_D</t>
-  </si>
-  <si>
-    <t>A_R_D</t>
-  </si>
-  <si>
-    <t>A_F</t>
-  </si>
-  <si>
-    <t>A_M</t>
-  </si>
-  <si>
-    <t>N_godet</t>
-  </si>
-  <si>
-    <t>V_R</t>
-  </si>
-  <si>
-    <t>R_M</t>
-  </si>
-  <si>
-    <t>D_R</t>
-  </si>
-  <si>
-    <t>Lat_1</t>
-  </si>
-  <si>
-    <t>Lon_1</t>
-  </si>
-  <si>
-    <t>Lat_2</t>
-  </si>
-  <si>
-    <t>Lon_2</t>
-  </si>
-  <si>
-    <t>V_R_3</t>
-  </si>
-  <si>
-    <t>R_M_3</t>
-  </si>
-  <si>
-    <t>A_M_3</t>
-  </si>
-  <si>
-    <t>V_R_1</t>
-  </si>
-  <si>
-    <t>R_M_1</t>
-  </si>
-  <si>
-    <t>A_M_1</t>
-  </si>
-  <si>
-    <t>V_R_2</t>
-  </si>
-  <si>
-    <t>R_M_2</t>
-  </si>
-  <si>
-    <t>A_M_2</t>
-  </si>
-  <si>
-    <t>Spin_Value</t>
-  </si>
-  <si>
-    <t>32.243</t>
-  </si>
-  <si>
-    <t>-7.9596</t>
-  </si>
-  <si>
-    <t>33.589886</t>
-  </si>
-  <si>
-    <t>-7.603869</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -160,27 +69,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -480,484 +380,550 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" customWidth="1"/>
-    <col min="11" max="12" width="19.42578125" customWidth="1"/>
-    <col min="13" max="13" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col width="5" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="6.7109375" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="4.28515625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="5.85546875" customWidth="1" min="4" max="4"/>
+    <col width="8.5703125" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="4.42578125" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="12" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="4.42578125" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="19.42578125" customWidth="1" min="9" max="9"/>
+    <col width="18.7109375" customWidth="1" min="10" max="10"/>
+    <col width="19.42578125" customWidth="1" min="11" max="12"/>
+    <col width="6.42578125" bestFit="1" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>A_D</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>A_R_D</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>A_F</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>A_M</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>N_godet</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>V_R</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>R_M</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>D_R</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Lat_1</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>Lon_1</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>Lat_2</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>Lon_2</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>V_R_3</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>R_M_3</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>A_M_3</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>V_R_1</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>R_M_1</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>A_M_1</t>
+        </is>
+      </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>V_R_2</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>R_M_2</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>A_M_2</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Spin_Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="E2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="F2" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="G2" s="1" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="H2" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>32.243</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>-7.9596</t>
+        </is>
+      </c>
+      <c r="K2" s="4" t="inlineStr">
+        <is>
+          <t>33.589886</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>-7.603869</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>1240</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>1700</v>
+      </c>
+      <c r="T2" s="1" t="n">
+        <v>167.5</v>
+      </c>
+      <c r="U2" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="B3" s="1" t="n">
         <v>10.5</v>
       </c>
-      <c r="B2" s="1">
-        <v>9.5</v>
-      </c>
-      <c r="C2" s="1">
-        <v>70</v>
-      </c>
-      <c r="D2" s="1">
-        <v>70</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1">
-        <v>9.5</v>
-      </c>
-      <c r="H2" s="1">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="1">
-        <v>1500</v>
-      </c>
-      <c r="N2" s="1">
-        <v>187.5</v>
-      </c>
-      <c r="O2" s="1">
-        <v>88</v>
-      </c>
-      <c r="P2" s="1">
-        <v>1240</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>155</v>
-      </c>
-      <c r="R2" s="1">
-        <v>74</v>
-      </c>
-      <c r="S2" s="1">
-        <v>1700</v>
-      </c>
-      <c r="T2" s="1">
-        <v>167.5</v>
-      </c>
-      <c r="U2" s="1">
-        <v>78</v>
-      </c>
-      <c r="V2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>9.5</v>
-      </c>
-      <c r="B3" s="1">
-        <v>10.5</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="C3" s="1" t="n">
         <v>45</v>
       </c>
       <c r="D3" s="1">
         <f>AVERAGE(C2:C3)</f>
-        <v>57.5</v>
-      </c>
-      <c r="E3" s="1">
+        <v/>
+      </c>
+      <c r="E3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="1" t="n">
         <v>18</v>
       </c>
       <c r="G3" s="1">
         <f>AVERAGE(B2:B3)</f>
-        <v>10</v>
-      </c>
-      <c r="H3" s="1">
+        <v/>
+      </c>
+      <c r="H3" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>32.243</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>-7.9596</t>
+        </is>
+      </c>
+      <c r="K3" s="4" t="inlineStr">
+        <is>
+          <t>33.589886</t>
+        </is>
+      </c>
+      <c r="L3" s="3" t="inlineStr">
+        <is>
+          <t>-7.603869</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="1" t="n">
         <v>110</v>
       </c>
       <c r="D4" s="1">
         <f>AVERAGE(C2:C4)</f>
-        <v>75</v>
-      </c>
-      <c r="E4" s="1">
+        <v/>
+      </c>
+      <c r="E4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="1" t="n">
         <v>24</v>
       </c>
       <c r="G4" s="1">
         <f>AVERAGE(B2:B4)</f>
-        <v>11</v>
-      </c>
-      <c r="H4" s="1">
+        <v/>
+      </c>
+      <c r="H4" s="1" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>5.2</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="1" t="n">
         <v>14.8</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="1" t="n">
         <v>90</v>
       </c>
       <c r="D5" s="1">
         <f>AVERAGE(C2:C5)</f>
-        <v>78.75</v>
-      </c>
-      <c r="E5" s="1">
+        <v/>
+      </c>
+      <c r="E5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="1" t="n">
         <v>30</v>
       </c>
       <c r="G5" s="1">
         <f>AVERAGE(B2:B5)</f>
-        <v>11.95</v>
-      </c>
-      <c r="H5" s="1">
+        <v/>
+      </c>
+      <c r="H5" s="1" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4.5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="1" t="n">
         <v>15.5</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="1" t="n">
         <v>80</v>
       </c>
       <c r="D6" s="1">
         <f>AVERAGE(C2:C7)</f>
-        <v>80.5</v>
-      </c>
-      <c r="E6" s="1">
+        <v/>
+      </c>
+      <c r="E6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="1" t="n">
         <v>39</v>
       </c>
       <c r="G6" s="1">
         <f>AVERAGE(B2:B6)</f>
-        <v>12.66</v>
-      </c>
-      <c r="H6" s="1">
+        <v/>
+      </c>
+      <c r="H6" s="1" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>3.2</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="1" t="n">
         <v>16.8</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="1" t="n">
         <v>88</v>
       </c>
       <c r="D7" s="1">
         <f>AVERAGE(C2:C7)</f>
-        <v>80.5</v>
-      </c>
-      <c r="E7" s="1">
+        <v/>
+      </c>
+      <c r="E7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="1" t="n">
         <v>49</v>
       </c>
       <c r="G7" s="1">
         <f>AVERAGE(B2:B7)</f>
-        <v>13.35</v>
-      </c>
-      <c r="H7" s="1">
+        <v/>
+      </c>
+      <c r="H7" s="1" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="1" t="n">
         <v>92</v>
       </c>
       <c r="D8" s="1">
         <f>AVERAGE(C2:C8)</f>
-        <v>82.142857142857139</v>
-      </c>
-      <c r="E8" s="1">
+        <v/>
+      </c>
+      <c r="E8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="1" t="n">
         <v>57</v>
       </c>
       <c r="G8" s="1">
         <f>AVERAGE(B2:B8)</f>
-        <v>13.87142857142857</v>
-      </c>
-      <c r="H8" s="1">
+        <v/>
+      </c>
+      <c r="H8" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>2.8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="1" t="n">
         <v>17.8</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="1" t="n">
         <v>93</v>
       </c>
       <c r="D9" s="1">
         <f>AVERAGE(C2:C9)</f>
-        <v>83.5</v>
-      </c>
-      <c r="E9" s="1">
+        <v/>
+      </c>
+      <c r="E9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="1" t="n">
         <v>64</v>
       </c>
       <c r="G9" s="1">
         <f>AVERAGE(B2:B9)</f>
-        <v>14.362499999999999</v>
-      </c>
-      <c r="H9" s="1">
+        <v/>
+      </c>
+      <c r="H9" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="1" t="n">
         <v>85</v>
       </c>
       <c r="D10" s="1">
         <f>AVERAGE(C2:C10)</f>
-        <v>83.666666666666671</v>
-      </c>
-      <c r="E10" s="1">
+        <v/>
+      </c>
+      <c r="E10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="1" t="n">
         <v>70</v>
       </c>
       <c r="G10" s="1">
         <f>AVERAGE(B2:B10)</f>
-        <v>14.766666666666664</v>
-      </c>
-      <c r="H10" s="1">
+        <v/>
+      </c>
+      <c r="H10" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>1.3</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="1" t="n">
         <v>18.7</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="1" t="n">
         <v>69</v>
       </c>
       <c r="D11" s="1">
         <f>AVERAGE(C2:C11)</f>
-        <v>82.2</v>
-      </c>
-      <c r="E11" s="1">
+        <v/>
+      </c>
+      <c r="E11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="1" t="n">
         <v>80</v>
       </c>
       <c r="G11" s="1">
         <f>AVERAGE(B2:B11)</f>
-        <v>15.159999999999997</v>
-      </c>
-      <c r="H11" s="1">
+        <v/>
+      </c>
+      <c r="H11" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="1" t="n">
         <v>19.8</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="1" t="n">
         <v>110</v>
       </c>
       <c r="D12" s="1">
         <f>AVERAGE(C2:C12)</f>
-        <v>84.727272727272734</v>
-      </c>
-      <c r="E12" s="1">
+        <v/>
+      </c>
+      <c r="E12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="1" t="n">
         <v>89</v>
       </c>
       <c r="G12" s="1">
         <f>AVERAGE(B2:B12)</f>
-        <v>15.58181818181818</v>
-      </c>
-      <c r="H12" s="1">
+        <v/>
+      </c>
+      <c r="H12" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
+    <row r="13">
+      <c r="B13" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="1" t="n">
         <v>30</v>
       </c>
       <c r="D13" s="1">
         <f>AVERAGE(C2:C13)</f>
-        <v>80.166666666666671</v>
-      </c>
-      <c r="E13" s="1">
+        <v/>
+      </c>
+      <c r="E13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="1" t="n">
         <v>98</v>
       </c>
       <c r="G13" s="1">
         <f>AVERAGE(B2:B13)</f>
-        <v>15.949999999999998</v>
-      </c>
-      <c r="H13" s="1">
+        <v/>
+      </c>
+      <c r="H13" s="1" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>